--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -24,49 +24,8 @@
     <x:t>Value2</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">aaaaa
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t xml:space="preserve">• </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:rFont val="Calibri"/>
-        <x:family val="2"/>
-      </x:rPr>
-      <x:t>aaaaaaaaaaaaa</x:t>
-    </x:r>
+    <x:t>● aaaaa
+● aaaaaaaaaaaaa</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -430,7 +389,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="10.996339" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.996339" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -392,7 +392,7 @@
     <x:col min="2" max="2" width="18.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:2" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -400,7 +400,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:2" ht="28.5" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -388,8 +388,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.996339" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="18.282054" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" ht="14.25" customHeight="1">
